--- a/data/case1/5/V2_5.xlsx
+++ b/data/case1/5/V2_5.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999358650782</v>
+        <v>0.99999999030758002</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99571364521221117</v>
+        <v>0.99622868625103644</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9764541606688677</v>
+        <v>0.97968973441769225</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.97145518398439834</v>
+        <v>0.97333673064905679</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.9635203358343305</v>
+        <v>0.96400335616536159</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.94450521595193537</v>
+        <v>0.94129960412871738</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.94035655779953631</v>
+        <v>0.93764679048191768</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.934498272901366</v>
+        <v>0.93329213564236979</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.9380946017228553</v>
+        <v>0.92959149997415136</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.94269185228021823</v>
+        <v>0.92229772598362281</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.94352668902903103</v>
+        <v>0.92279485442630138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.94537452526168542</v>
+        <v>0.92399864508111818</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.94268972718461708</v>
+        <v>0.9127117542771177</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.94227745633215543</v>
+        <v>0.9085445003015975</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.94325041863065484</v>
+        <v>0.90595307484802112</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.94499369246413711</v>
+        <v>0.90344661141747173</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.94128603687008749</v>
+        <v>0.89973873237561497</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.94017713845971995</v>
+        <v>0.89862983577890054</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99466043737581178</v>
+        <v>0.9951755107544159</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98754340560846954</v>
+        <v>0.98805862089253083</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.9861449202529935</v>
+        <v>0.98666015717935007</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98488041611291788</v>
+        <v>0.98539565542986507</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.96483141545200168</v>
+        <v>0.9726546734870225</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.9518096191297456</v>
+        <v>0.95963351728773061</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.94535247136715028</v>
+        <v>0.95317648725796433</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.94084999548293524</v>
+        <v>0.93873188398700913</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.93600377140517144</v>
+        <v>0.93540133904819922</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.91453200423548453</v>
+        <v>0.92093006086901208</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.89926103468782081</v>
+        <v>0.91085549700147539</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.89269071930581756</v>
+        <v>0.90688389986322426</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.88503700236999427</v>
+        <v>0.90582623037124188</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.88335768828379735</v>
+        <v>0.90116138300419946</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.88283768452255684</v>
+        <v>0.90064139148267519</v>
       </c>
     </row>
   </sheetData>
